--- a/files/2021-02-25-How-many-exams/NPV_model.xlsx
+++ b/files/2021-02-25-How-many-exams/NPV_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\website_WIP\files\2021-03-01-How-many-exams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\actuarialcat.github.io\files\2021-02-25-How-many-exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E554E0C-98DC-4526-AA1C-E09D27830C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED1E86E-F14A-4E98-8EEF-DB93F58FAF74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BEA5B22C-F7FA-4207-B6BD-A0766C0F9336}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BEA5B22C-F7FA-4207-B6BD-A0766C0F9336}"/>
   </bookViews>
   <sheets>
     <sheet name="NPV of single exam" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Interest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,6 +485,45 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,67 +566,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,31 +578,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4092,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798EB4F9-1501-441B-A8BF-42495B11E387}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,46 +4098,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
@@ -4465,10 +4454,10 @@
       <c r="J11" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="61"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4518,13 +4507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F79431-09BE-42F7-882A-5E348C6537D6}">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="52" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="12"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
@@ -4542,97 +4531,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="80" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="63"/>
+      <c r="Q1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="79"/>
-      <c r="V1" s="84"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="50" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="K2" s="52"/>
+      <c r="I2" s="77"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="44"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="40"/>
+      <c r="Q2" s="67"/>
       <c r="S2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="58" t="s">
+      <c r="V2" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
-        <v>0</v>
-      </c>
-      <c r="B3" s="68">
+      <c r="A3" s="45">
+        <v>0</v>
+      </c>
+      <c r="B3" s="52">
         <f>YEAR(C3)</f>
         <v>2019</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="37">
         <v>43496</v>
       </c>
       <c r="D3" s="10">
@@ -4673,32 +4662,32 @@
       <c r="Q3" s="16">
         <v>250</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="36">
         <v>2019</v>
       </c>
-      <c r="T3" s="85">
-        <f>SUMIFS(F:F, $B:$B,S3)</f>
+      <c r="T3" s="57">
+        <f t="shared" ref="T3:T10" si="0">SUMIFS(F:F, $B:$B,S3)</f>
         <v>-625</v>
       </c>
-      <c r="U3" s="86">
-        <f>SUMIFS(H:H, $B:$B,S3)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="87">
+      <c r="U3" s="58">
+        <f t="shared" ref="U3:U10" si="1">SUMIFS(H:H, $B:$B,S3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="59">
         <f>SUMIFS(I:I, $B:$B,S3)</f>
         <v>-625</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="45">
         <f>A3+1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B4" s="68">
-        <f t="shared" ref="B4:B67" si="0">YEAR(C4)</f>
+      <c r="B4" s="52">
+        <f t="shared" ref="B4:B67" si="2">YEAR(C4)</f>
         <v>2019</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="37">
         <f>EOMONTH(C3,1)</f>
         <v>43524</v>
       </c>
@@ -4713,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I67" si="1">F4-H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="52" t="s">
+        <f t="shared" ref="I4:I67" si="3">F4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="47">
         <f>SUMPRODUCT(D3:D85,H3:H85)</f>
         <v>112548.95701571422</v>
       </c>
@@ -4730,39 +4719,39 @@
         <v>3000</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P15" si="2">O4/12</f>
+        <f t="shared" ref="P4:P15" si="4">O4/12</f>
         <v>250</v>
       </c>
       <c r="Q4" s="16">
         <v>250</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="36">
         <v>2020</v>
       </c>
-      <c r="T4" s="85">
-        <f>SUMIFS(F:F, $B:$B,S4)</f>
+      <c r="T4" s="57">
+        <f t="shared" si="0"/>
         <v>-2450</v>
       </c>
-      <c r="U4" s="67">
-        <f>SUMIFS(H:H, $B:$B,S4)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="85">
-        <f t="shared" ref="V4:V10" si="3">SUMIFS(I:I, $B:$B,S4)</f>
+      <c r="U4" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="57">
+        <f t="shared" ref="V4:V10" si="5">SUMIFS(I:I, $B:$B,S4)</f>
         <v>-2450</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
-        <f t="shared" ref="A5:A68" si="4">A4+1/12</f>
+      <c r="A5" s="45">
+        <f t="shared" ref="A5:A68" si="6">A4+1/12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="B5" s="68">
-        <f t="shared" si="0"/>
+      <c r="B5" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C5" s="51">
-        <f t="shared" ref="C5:C68" si="5">EOMONTH(C4,1)</f>
+      <c r="C5" s="37">
+        <f t="shared" ref="C5:C68" si="7">EOMONTH(C4,1)</f>
         <v>43555</v>
       </c>
       <c r="D5" s="10">
@@ -4776,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="48">
         <f>L3-L4</f>
         <v>45179.59866602761</v>
       </c>
@@ -4793,39 +4782,39 @@
         <v>3000</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="Q5" s="16">
         <v>300</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="36">
         <v>2021</v>
       </c>
-      <c r="T5" s="85">
-        <f>SUMIFS(F:F, $B:$B,S5)</f>
+      <c r="T5" s="57">
+        <f t="shared" si="0"/>
         <v>10258.333333333332</v>
       </c>
-      <c r="U5" s="67">
-        <f>SUMIFS(H:H, $B:$B,S5)</f>
+      <c r="U5" s="51">
+        <f t="shared" si="1"/>
         <v>4250</v>
       </c>
-      <c r="V5" s="85">
-        <f t="shared" si="3"/>
+      <c r="V5" s="57">
+        <f t="shared" si="5"/>
         <v>6008.3333333333321</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
-        <f t="shared" si="4"/>
+      <c r="A6" s="45">
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="B6" s="68">
-        <f t="shared" si="0"/>
+      <c r="B6" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C6" s="51">
-        <f t="shared" si="5"/>
+      <c r="C6" s="37">
+        <f t="shared" si="7"/>
         <v>43585</v>
       </c>
       <c r="D6" s="10">
@@ -4839,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4849,39 +4838,39 @@
         <v>4000</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>333.33333333333331</v>
       </c>
       <c r="Q6" s="17">
         <v>365</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="36">
         <v>2022</v>
       </c>
-      <c r="T6" s="85">
-        <f>SUMIFS(F:F, $B:$B,S6)</f>
+      <c r="T6" s="57">
+        <f t="shared" si="0"/>
         <v>34999.999999999993</v>
       </c>
-      <c r="U6" s="67">
-        <f>SUMIFS(H:H, $B:$B,S6)</f>
+      <c r="U6" s="51">
+        <f t="shared" si="1"/>
         <v>16208.333333333332</v>
       </c>
-      <c r="V6" s="85">
-        <f t="shared" si="3"/>
+      <c r="V6" s="57">
+        <f t="shared" si="5"/>
         <v>18791.666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
-        <f t="shared" si="4"/>
+      <c r="A7" s="45">
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B7" s="68">
-        <f t="shared" si="0"/>
+      <c r="B7" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C7" s="51">
-        <f t="shared" si="5"/>
+      <c r="C7" s="37">
+        <f t="shared" si="7"/>
         <v>43616</v>
       </c>
       <c r="D7" s="10">
@@ -4895,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="82" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="55">
         <f>SUMPRODUCT(D:D,I:I) - L5</f>
         <v>0</v>
       </c>
@@ -4912,39 +4901,39 @@
         <v>3500</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>291.66666666666669</v>
       </c>
       <c r="Q7" s="17">
         <v>300</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="36">
         <v>2023</v>
       </c>
-      <c r="T7" s="85">
-        <f>SUMIFS(F:F, $B:$B,S7)</f>
+      <c r="T7" s="57">
+        <f t="shared" si="0"/>
         <v>41666.66666666665</v>
       </c>
-      <c r="U7" s="67">
-        <f>SUMIFS(H:H, $B:$B,S7)</f>
+      <c r="U7" s="51">
+        <f t="shared" si="1"/>
         <v>26250.000000000004</v>
       </c>
-      <c r="V7" s="85">
-        <f t="shared" si="3"/>
+      <c r="V7" s="57">
+        <f t="shared" si="5"/>
         <v>15416.666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
-        <f t="shared" si="4"/>
+      <c r="A8" s="45">
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="B8" s="68">
-        <f t="shared" si="0"/>
+      <c r="B8" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C8" s="51">
-        <f t="shared" si="5"/>
+      <c r="C8" s="37">
+        <f t="shared" si="7"/>
         <v>43646</v>
       </c>
       <c r="D8" s="10">
@@ -4958,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -4968,39 +4957,39 @@
         <v>3000</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="Q8" s="17">
         <v>260</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="36">
         <v>2024</v>
       </c>
-      <c r="T8" s="85">
-        <f>SUMIFS(F:F, $B:$B,S8)</f>
+      <c r="T8" s="57">
+        <f t="shared" si="0"/>
         <v>43499.999999999993</v>
       </c>
-      <c r="U8" s="67">
-        <f>SUMIFS(H:H, $B:$B,S8)</f>
+      <c r="U8" s="51">
+        <f t="shared" si="1"/>
         <v>34999.999999999993</v>
       </c>
-      <c r="V8" s="85">
-        <f t="shared" si="3"/>
+      <c r="V8" s="57">
+        <f t="shared" si="5"/>
         <v>8499.9999999999982</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
-        <f t="shared" si="4"/>
+      <c r="A9" s="45">
+        <f t="shared" si="6"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="B9" s="68">
-        <f t="shared" si="0"/>
+      <c r="B9" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C9" s="51">
-        <f t="shared" si="5"/>
+      <c r="C9" s="37">
+        <f t="shared" si="7"/>
         <v>43677</v>
       </c>
       <c r="D9" s="10">
@@ -5014,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -5024,39 +5013,39 @@
         <v>3000</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="Q9" s="17">
         <v>1250</v>
       </c>
-      <c r="S9" s="50">
+      <c r="S9" s="36">
         <v>2025</v>
       </c>
-      <c r="T9" s="85">
-        <f>SUMIFS(F:F, $B:$B,S9)</f>
+      <c r="T9" s="57">
+        <f t="shared" si="0"/>
         <v>43499.999999999993</v>
       </c>
-      <c r="U9" s="67">
-        <f>SUMIFS(H:H, $B:$B,S9)</f>
+      <c r="U9" s="51">
+        <f t="shared" si="1"/>
         <v>41666.66666666665</v>
       </c>
-      <c r="V9" s="85">
-        <f t="shared" si="3"/>
+      <c r="V9" s="57">
+        <f t="shared" si="5"/>
         <v>1833.3333333333348</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
-        <f t="shared" si="4"/>
+      <c r="A10" s="45">
+        <f t="shared" si="6"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="B10" s="68">
-        <f t="shared" si="0"/>
+      <c r="B10" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C10" s="51">
-        <f t="shared" si="5"/>
+      <c r="C10" s="37">
+        <f t="shared" si="7"/>
         <v>43708</v>
       </c>
       <c r="D10" s="10">
@@ -5070,50 +5059,50 @@
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="47" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="34">
         <v>5000</v>
       </c>
-      <c r="P10" s="49">
-        <f t="shared" si="2"/>
+      <c r="P10" s="35">
+        <f t="shared" si="4"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="43">
         <f>900 + 1200</f>
         <v>2100</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="36">
         <v>2026</v>
       </c>
-      <c r="T10" s="85">
-        <f>SUMIFS(F:F, $B:$B,S10)</f>
+      <c r="T10" s="57">
+        <f t="shared" si="0"/>
         <v>43499.999999999993</v>
       </c>
-      <c r="U10" s="67">
-        <f>SUMIFS(H:H, $B:$B,S10)</f>
+      <c r="U10" s="51">
+        <f t="shared" si="1"/>
         <v>43499.999999999993</v>
       </c>
-      <c r="V10" s="85">
-        <f t="shared" si="3"/>
+      <c r="V10" s="57">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
-        <f t="shared" si="4"/>
+      <c r="A11" s="45">
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B11" s="68">
-        <f t="shared" si="0"/>
+      <c r="B11" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C11" s="51">
-        <f t="shared" si="5"/>
+      <c r="C11" s="37">
+        <f t="shared" si="7"/>
         <v>43738</v>
       </c>
       <c r="D11" s="10">
@@ -5127,31 +5116,31 @@
         <v>0</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="49">
         <v>5000</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>416.66666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
-        <f t="shared" si="4"/>
+      <c r="A12" s="45">
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="B12" s="68">
-        <f t="shared" si="0"/>
+      <c r="B12" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C12" s="51">
-        <f t="shared" si="5"/>
+      <c r="C12" s="37">
+        <f t="shared" si="7"/>
         <v>43769</v>
       </c>
       <c r="D12" s="10">
@@ -5169,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-365</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -5179,21 +5168,21 @@
         <v>5000</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>416.66666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
-        <f t="shared" si="4"/>
+      <c r="A13" s="45">
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="68">
-        <f t="shared" si="0"/>
+      <c r="B13" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C13" s="51">
-        <f t="shared" si="5"/>
+      <c r="C13" s="37">
+        <f t="shared" si="7"/>
         <v>43799</v>
       </c>
       <c r="D13" s="10">
@@ -5207,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -5217,21 +5206,21 @@
         <v>2000</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>166.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
-        <f t="shared" si="4"/>
+      <c r="A14" s="45">
+        <f t="shared" si="6"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="B14" s="68">
-        <f t="shared" si="0"/>
+      <c r="B14" s="52">
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C14" s="51">
-        <f t="shared" si="5"/>
+      <c r="C14" s="37">
+        <f t="shared" si="7"/>
         <v>43830</v>
       </c>
       <c r="D14" s="10">
@@ -5245,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -5256,21 +5245,21 @@
         <v>3000</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="61">
-        <f t="shared" si="4"/>
+      <c r="A15" s="45">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B15" s="68">
-        <f t="shared" si="0"/>
+      <c r="B15" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C15" s="51">
-        <f t="shared" si="5"/>
+      <c r="C15" s="37">
+        <f t="shared" si="7"/>
         <v>43861</v>
       </c>
       <c r="D15" s="10">
@@ -5284,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -5294,21 +5283,21 @@
         <v>1000</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
-        <f t="shared" si="4"/>
+      <c r="A16" s="45">
+        <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="B16" s="68">
-        <f t="shared" si="0"/>
+      <c r="B16" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C16" s="51">
-        <f t="shared" si="5"/>
+      <c r="C16" s="37">
+        <f t="shared" si="7"/>
         <v>43890</v>
       </c>
       <c r="D16" s="10">
@@ -5322,21 +5311,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
-        <f t="shared" si="4"/>
+      <c r="A17" s="45">
+        <f t="shared" si="6"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="B17" s="68">
-        <f t="shared" si="0"/>
+      <c r="B17" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C17" s="51">
-        <f t="shared" si="5"/>
+      <c r="C17" s="37">
+        <f t="shared" si="7"/>
         <v>43921</v>
       </c>
       <c r="D17" s="10">
@@ -5350,21 +5339,21 @@
         <v>0</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
-        <f t="shared" si="4"/>
+      <c r="A18" s="45">
+        <f t="shared" si="6"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="B18" s="68">
-        <f t="shared" si="0"/>
+      <c r="B18" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C18" s="51">
-        <f t="shared" si="5"/>
+      <c r="C18" s="37">
+        <f t="shared" si="7"/>
         <v>43951</v>
       </c>
       <c r="D18" s="10">
@@ -5378,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="25" t="s">
@@ -5386,16 +5375,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="61">
-        <f t="shared" si="4"/>
+      <c r="A19" s="45">
+        <f t="shared" si="6"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="B19" s="68">
-        <f t="shared" si="0"/>
+      <c r="B19" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C19" s="51">
-        <f t="shared" si="5"/>
+      <c r="C19" s="37">
+        <f t="shared" si="7"/>
         <v>43982</v>
       </c>
       <c r="D19" s="10">
@@ -5409,21 +5398,21 @@
         <v>0</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="61">
-        <f t="shared" si="4"/>
+      <c r="A20" s="45">
+        <f t="shared" si="6"/>
         <v>1.4166666666666663</v>
       </c>
-      <c r="B20" s="68">
-        <f t="shared" si="0"/>
+      <c r="B20" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C20" s="51">
-        <f t="shared" si="5"/>
+      <c r="C20" s="37">
+        <f t="shared" si="7"/>
         <v>44012</v>
       </c>
       <c r="D20" s="10">
@@ -5441,21 +5430,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1250</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="61">
-        <f t="shared" si="4"/>
+      <c r="A21" s="45">
+        <f t="shared" si="6"/>
         <v>1.4999999999999996</v>
       </c>
-      <c r="B21" s="68">
-        <f t="shared" si="0"/>
+      <c r="B21" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C21" s="51">
-        <f t="shared" si="5"/>
+      <c r="C21" s="37">
+        <f t="shared" si="7"/>
         <v>44043</v>
       </c>
       <c r="D21" s="10">
@@ -5472,21 +5461,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-900</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
-        <f t="shared" si="4"/>
+      <c r="A22" s="45">
+        <f t="shared" si="6"/>
         <v>1.5833333333333328</v>
       </c>
-      <c r="B22" s="68">
-        <f t="shared" si="0"/>
+      <c r="B22" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C22" s="51">
-        <f t="shared" si="5"/>
+      <c r="C22" s="37">
+        <f t="shared" si="7"/>
         <v>44074</v>
       </c>
       <c r="D22" s="10">
@@ -5500,21 +5489,21 @@
         <v>0</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
-        <f t="shared" si="4"/>
+      <c r="A23" s="45">
+        <f t="shared" si="6"/>
         <v>1.6666666666666661</v>
       </c>
-      <c r="B23" s="68">
-        <f t="shared" si="0"/>
+      <c r="B23" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C23" s="51">
-        <f t="shared" si="5"/>
+      <c r="C23" s="37">
+        <f t="shared" si="7"/>
         <v>44104</v>
       </c>
       <c r="D23" s="10">
@@ -5528,21 +5517,21 @@
         <v>0</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
-        <f t="shared" si="4"/>
+      <c r="A24" s="45">
+        <f t="shared" si="6"/>
         <v>1.7499999999999993</v>
       </c>
-      <c r="B24" s="68">
-        <f t="shared" si="0"/>
+      <c r="B24" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C24" s="51">
-        <f t="shared" si="5"/>
+      <c r="C24" s="37">
+        <f t="shared" si="7"/>
         <v>44135</v>
       </c>
       <c r="D24" s="10">
@@ -5560,21 +5549,21 @@
         <v>0</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-300</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="61">
-        <f t="shared" si="4"/>
+      <c r="A25" s="45">
+        <f t="shared" si="6"/>
         <v>1.8333333333333326</v>
       </c>
-      <c r="B25" s="68">
-        <f t="shared" si="0"/>
+      <c r="B25" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C25" s="51">
-        <f t="shared" si="5"/>
+      <c r="C25" s="37">
+        <f t="shared" si="7"/>
         <v>44165</v>
       </c>
       <c r="D25" s="10">
@@ -5588,21 +5577,21 @@
         <v>0</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="61">
-        <f t="shared" si="4"/>
+      <c r="A26" s="45">
+        <f t="shared" si="6"/>
         <v>1.9166666666666659</v>
       </c>
-      <c r="B26" s="68">
-        <f t="shared" si="0"/>
+      <c r="B26" s="52">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C26" s="51">
-        <f t="shared" si="5"/>
+      <c r="C26" s="37">
+        <f t="shared" si="7"/>
         <v>44196</v>
       </c>
       <c r="D26" s="10">
@@ -5616,21 +5605,21 @@
         <v>0</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
-        <f t="shared" si="4"/>
+      <c r="A27" s="45">
+        <f t="shared" si="6"/>
         <v>1.9999999999999991</v>
       </c>
-      <c r="B27" s="68">
-        <f t="shared" si="0"/>
+      <c r="B27" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C27" s="51">
-        <f t="shared" si="5"/>
+      <c r="C27" s="37">
+        <f t="shared" si="7"/>
         <v>44227</v>
       </c>
       <c r="D27" s="10">
@@ -5644,21 +5633,21 @@
         <v>0</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="61">
-        <f t="shared" si="4"/>
+      <c r="A28" s="45">
+        <f t="shared" si="6"/>
         <v>2.0833333333333326</v>
       </c>
-      <c r="B28" s="68">
-        <f t="shared" si="0"/>
+      <c r="B28" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C28" s="51">
-        <f t="shared" si="5"/>
+      <c r="C28" s="37">
+        <f t="shared" si="7"/>
         <v>44255</v>
       </c>
       <c r="D28" s="10">
@@ -5672,21 +5661,21 @@
         <v>0</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="61">
-        <f t="shared" si="4"/>
+      <c r="A29" s="45">
+        <f t="shared" si="6"/>
         <v>2.1666666666666661</v>
       </c>
-      <c r="B29" s="68">
-        <f t="shared" si="0"/>
+      <c r="B29" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C29" s="51">
-        <f t="shared" si="5"/>
+      <c r="C29" s="37">
+        <f t="shared" si="7"/>
         <v>44286</v>
       </c>
       <c r="D29" s="10">
@@ -5703,21 +5692,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1200</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="61">
-        <f t="shared" si="4"/>
+      <c r="A30" s="45">
+        <f t="shared" si="6"/>
         <v>2.2499999999999996</v>
       </c>
-      <c r="B30" s="68">
-        <f t="shared" si="0"/>
+      <c r="B30" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C30" s="51">
-        <f t="shared" si="5"/>
+      <c r="C30" s="37">
+        <f t="shared" si="7"/>
         <v>44316</v>
       </c>
       <c r="D30" s="10">
@@ -5731,21 +5720,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="61">
-        <f t="shared" si="4"/>
+      <c r="A31" s="45">
+        <f t="shared" si="6"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="B31" s="68">
-        <f t="shared" si="0"/>
+      <c r="B31" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C31" s="51">
-        <f t="shared" si="5"/>
+      <c r="C31" s="37">
+        <f t="shared" si="7"/>
         <v>44347</v>
       </c>
       <c r="D31" s="10">
@@ -5759,21 +5748,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="61">
-        <f t="shared" si="4"/>
+      <c r="A32" s="45">
+        <f t="shared" si="6"/>
         <v>2.4166666666666665</v>
       </c>
-      <c r="B32" s="68">
-        <f t="shared" si="0"/>
+      <c r="B32" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C32" s="51">
-        <f t="shared" si="5"/>
+      <c r="C32" s="37">
+        <f t="shared" si="7"/>
         <v>44377</v>
       </c>
       <c r="D32" s="10">
@@ -5787,85 +5776,85 @@
         <v>0</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
-        <f t="shared" si="4"/>
+      <c r="A33" s="46">
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="B33" s="69">
-        <f t="shared" si="0"/>
+      <c r="B33" s="53">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C33" s="53">
-        <f t="shared" si="5"/>
+      <c r="C33" s="39">
+        <f t="shared" si="7"/>
         <v>44408</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="40">
         <f>VLOOKUP(A33,Interest!$A:$B,2) / VLOOKUP($A$33,Interest!$A:$B,2)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="49">
-        <v>0</v>
-      </c>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="35">
         <v>0</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="61">
-        <f t="shared" si="4"/>
+      <c r="A34" s="45">
+        <f t="shared" si="6"/>
         <v>2.5833333333333335</v>
       </c>
-      <c r="B34" s="68">
-        <f t="shared" si="0"/>
+      <c r="B34" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C34" s="51">
-        <f t="shared" si="5"/>
+      <c r="C34" s="37">
+        <f t="shared" si="7"/>
         <v>44439</v>
       </c>
       <c r="D34" s="10">
         <f>VLOOKUP(A34,Interest!$A:$B,2) / VLOOKUP($A$33,Interest!$A:$B,2)</f>
         <v>0.99753979775013901</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="44">
         <f>SUM(P3:P10)</f>
         <v>2291.6666666666665</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="44">
         <f>SUM(P3:P5)</f>
         <v>750</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1541.6666666666665</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="61">
-        <f t="shared" si="4"/>
+      <c r="A35" s="45">
+        <f t="shared" si="6"/>
         <v>2.666666666666667</v>
       </c>
-      <c r="B35" s="68">
-        <f t="shared" si="0"/>
+      <c r="B35" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C35" s="51">
-        <f t="shared" si="5"/>
+      <c r="C35" s="37">
+        <f t="shared" si="7"/>
         <v>44469</v>
       </c>
       <c r="D35" s="10">
@@ -5873,7 +5862,7 @@
         <v>0.99508564809538813</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ref="F35:F38" si="6">F34</f>
+        <f t="shared" ref="F35:F38" si="8">F34</f>
         <v>2291.6666666666665</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -5884,21 +5873,21 @@
         <v>750</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1541.6666666666665</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="61">
-        <f t="shared" si="4"/>
+      <c r="A36" s="45">
+        <f t="shared" si="6"/>
         <v>2.7500000000000004</v>
       </c>
-      <c r="B36" s="68">
-        <f t="shared" si="0"/>
+      <c r="B36" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C36" s="51">
-        <f t="shared" si="5"/>
+      <c r="C36" s="37">
+        <f t="shared" si="7"/>
         <v>44500</v>
       </c>
       <c r="D36" s="10">
@@ -5909,7 +5898,7 @@
         <v>44</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2291.6666666666665</v>
       </c>
       <c r="H36" s="1">
@@ -5917,21 +5906,21 @@
         <v>750</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1541.6666666666665</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="61">
-        <f t="shared" si="4"/>
+      <c r="A37" s="45">
+        <f t="shared" si="6"/>
         <v>2.8333333333333339</v>
       </c>
-      <c r="B37" s="68">
-        <f t="shared" si="0"/>
+      <c r="B37" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C37" s="51">
-        <f t="shared" si="5"/>
+      <c r="C37" s="37">
+        <f t="shared" si="7"/>
         <v>44530</v>
       </c>
       <c r="D37" s="12">
@@ -5939,32 +5928,32 @@
         <v>0.99019544704541873</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2291.6666666666665</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="44">
         <f>H36+$P$8</f>
         <v>1000</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1291.6666666666665</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="61">
-        <f t="shared" si="4"/>
+      <c r="A38" s="45">
+        <f t="shared" si="6"/>
         <v>2.9166666666666674</v>
       </c>
-      <c r="B38" s="68">
-        <f t="shared" si="0"/>
+      <c r="B38" s="52">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C38" s="51">
-        <f t="shared" si="5"/>
+      <c r="C38" s="37">
+        <f t="shared" si="7"/>
         <v>44561</v>
       </c>
       <c r="D38" s="12">
@@ -5972,29 +5961,29 @@
         <v>0.98775936597879543</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ref="H38:H62" si="9">H37</f>
+        <v>1000</v>
+      </c>
+      <c r="I38" s="20">
+        <f t="shared" si="3"/>
+        <v>1291.6666666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="45">
         <f t="shared" si="6"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ref="H38:H62" si="7">H37</f>
-        <v>1000</v>
-      </c>
-      <c r="I38" s="20">
-        <f t="shared" si="1"/>
-        <v>1291.6666666666665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="61">
-        <f t="shared" si="4"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="B39" s="68">
-        <f t="shared" si="0"/>
+      <c r="B39" s="52">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="C39" s="51">
-        <f t="shared" si="5"/>
+      <c r="C39" s="37">
+        <f t="shared" si="7"/>
         <v>44592</v>
       </c>
       <c r="D39" s="12">
@@ -6004,30 +5993,30 @@
       <c r="E39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="44">
         <f>F38+$P$11</f>
         <v>2708.333333333333</v>
       </c>
       <c r="H39" s="1">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="I39" s="20">
+        <f t="shared" si="3"/>
+        <v>1708.333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="45">
+        <f t="shared" si="6"/>
+        <v>3.0833333333333344</v>
+      </c>
+      <c r="B40" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C40" s="37">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="I39" s="20">
-        <f t="shared" si="1"/>
-        <v>1708.333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="61">
-        <f t="shared" si="4"/>
-        <v>3.0833333333333344</v>
-      </c>
-      <c r="B40" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C40" s="51">
-        <f t="shared" si="5"/>
         <v>44620</v>
       </c>
       <c r="D40" s="12">
@@ -6035,32 +6024,32 @@
         <v>0.98290516885729939</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40:F44" si="8">F39</f>
+        <f t="shared" ref="F40:F44" si="10">F39</f>
         <v>2708.333333333333</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="1">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="I40" s="20">
+        <f t="shared" si="3"/>
+        <v>1708.333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <f t="shared" si="6"/>
+        <v>3.1666666666666679</v>
+      </c>
+      <c r="B41" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C41" s="37">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="I40" s="20">
-        <f t="shared" si="1"/>
-        <v>1708.333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="61">
-        <f t="shared" si="4"/>
-        <v>3.1666666666666679</v>
-      </c>
-      <c r="B41" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C41" s="51">
-        <f t="shared" si="5"/>
         <v>44651</v>
       </c>
       <c r="D41" s="12">
@@ -6068,29 +6057,29 @@
         <v>0.98048702334947646</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2708.333333333333</v>
       </c>
       <c r="H41" s="1">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" si="3"/>
+        <v>1708.333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="45">
+        <f t="shared" si="6"/>
+        <v>3.2500000000000013</v>
+      </c>
+      <c r="B42" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C42" s="37">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="I41" s="20">
-        <f t="shared" si="1"/>
-        <v>1708.333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="61">
-        <f t="shared" si="4"/>
-        <v>3.2500000000000013</v>
-      </c>
-      <c r="B42" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C42" s="51">
-        <f t="shared" si="5"/>
         <v>44681</v>
       </c>
       <c r="D42" s="12">
@@ -6101,32 +6090,32 @@
         <v>46</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2708.333333333333</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="44">
         <f>H41+$P$7</f>
         <v>1291.6666666666667</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1416.6666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="61">
-        <f t="shared" si="4"/>
+      <c r="A43" s="45">
+        <f t="shared" si="6"/>
         <v>3.3333333333333348</v>
       </c>
-      <c r="B43" s="68">
-        <f t="shared" si="0"/>
+      <c r="B43" s="52">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="C43" s="51">
-        <f t="shared" si="5"/>
+      <c r="C43" s="37">
+        <f t="shared" si="7"/>
         <v>44712</v>
       </c>
       <c r="D43" s="12">
@@ -6134,29 +6123,29 @@
         <v>0.97566856507883182</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2708.333333333333</v>
       </c>
       <c r="H43" s="1">
+        <f t="shared" si="9"/>
+        <v>1291.6666666666667</v>
+      </c>
+      <c r="I43" s="20">
+        <f t="shared" si="3"/>
+        <v>1416.6666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="45">
+        <f t="shared" si="6"/>
+        <v>3.4166666666666683</v>
+      </c>
+      <c r="B44" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C44" s="37">
         <f t="shared" si="7"/>
-        <v>1291.6666666666667</v>
-      </c>
-      <c r="I43" s="20">
-        <f t="shared" si="1"/>
-        <v>1416.6666666666663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="61">
-        <f t="shared" si="4"/>
-        <v>3.4166666666666683</v>
-      </c>
-      <c r="B44" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C44" s="51">
-        <f t="shared" si="5"/>
         <v>44742</v>
       </c>
       <c r="D44" s="12">
@@ -6164,32 +6153,32 @@
         <v>0.97326822307990635</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2708.333333333333</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H44" s="1">
+        <f t="shared" si="9"/>
+        <v>1291.6666666666667</v>
+      </c>
+      <c r="I44" s="20">
+        <f t="shared" si="3"/>
+        <v>1416.6666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
+        <f t="shared" si="6"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="B45" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C45" s="37">
         <f t="shared" si="7"/>
-        <v>1291.6666666666667</v>
-      </c>
-      <c r="I44" s="20">
-        <f t="shared" si="1"/>
-        <v>1416.6666666666663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="61">
-        <f t="shared" si="4"/>
-        <v>3.5000000000000018</v>
-      </c>
-      <c r="B45" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C45" s="51">
-        <f t="shared" si="5"/>
         <v>44773</v>
       </c>
       <c r="D45" s="12">
@@ -6199,30 +6188,30 @@
       <c r="E45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="44">
         <f>F44+$P$12</f>
         <v>3124.9999999999995</v>
       </c>
       <c r="H45" s="1">
+        <f t="shared" si="9"/>
+        <v>1291.6666666666667</v>
+      </c>
+      <c r="I45" s="20">
+        <f t="shared" si="3"/>
+        <v>1833.3333333333328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
+        <f t="shared" si="6"/>
+        <v>3.5833333333333353</v>
+      </c>
+      <c r="B46" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C46" s="37">
         <f t="shared" si="7"/>
-        <v>1291.6666666666667</v>
-      </c>
-      <c r="I45" s="20">
-        <f t="shared" si="1"/>
-        <v>1833.3333333333328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
-        <f t="shared" si="4"/>
-        <v>3.5833333333333353</v>
-      </c>
-      <c r="B46" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C46" s="51">
-        <f t="shared" si="5"/>
         <v>44804</v>
       </c>
       <c r="D46" s="12">
@@ -6230,32 +6219,32 @@
         <v>0.96848524053411522</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:H86" si="9">F45</f>
+        <f t="shared" ref="F46:H86" si="11">F45</f>
         <v>3124.9999999999995</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="44">
         <f>H45+$P$9</f>
         <v>1541.6666666666667</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1583.3333333333328</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="61">
-        <f t="shared" si="4"/>
+      <c r="A47" s="45">
+        <f t="shared" si="6"/>
         <v>3.6666666666666687</v>
       </c>
-      <c r="B47" s="68">
-        <f t="shared" si="0"/>
+      <c r="B47" s="52">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="C47" s="51">
-        <f t="shared" si="5"/>
+      <c r="C47" s="37">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="D47" s="12">
@@ -6263,29 +6252,29 @@
         <v>0.96610257096639618</v>
       </c>
       <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>3124.9999999999995</v>
+      </c>
+      <c r="H47" s="1">
         <f t="shared" si="9"/>
-        <v>3124.9999999999995</v>
-      </c>
-      <c r="H47" s="1">
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="I47" s="20">
+        <f t="shared" si="3"/>
+        <v>1583.3333333333328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="45">
+        <f t="shared" si="6"/>
+        <v>3.7500000000000022</v>
+      </c>
+      <c r="B48" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C48" s="37">
         <f t="shared" si="7"/>
-        <v>1541.6666666666667</v>
-      </c>
-      <c r="I47" s="20">
-        <f t="shared" si="1"/>
-        <v>1583.3333333333328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="61">
-        <f t="shared" si="4"/>
-        <v>3.7500000000000022</v>
-      </c>
-      <c r="B48" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C48" s="51">
-        <f t="shared" si="5"/>
         <v>44865</v>
       </c>
       <c r="D48" s="12">
@@ -6296,32 +6285,32 @@
         <v>48</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H48" s="1">
+        <f t="shared" si="9"/>
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="I48" s="20">
+        <f t="shared" si="3"/>
+        <v>1583.3333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="45">
+        <f t="shared" si="6"/>
+        <v>3.8333333333333357</v>
+      </c>
+      <c r="B49" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C49" s="37">
         <f t="shared" si="7"/>
-        <v>1541.6666666666667</v>
-      </c>
-      <c r="I48" s="20">
-        <f t="shared" si="1"/>
-        <v>1583.3333333333328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="61">
-        <f t="shared" si="4"/>
-        <v>3.8333333333333357</v>
-      </c>
-      <c r="B49" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C49" s="51">
-        <f t="shared" si="5"/>
         <v>44895</v>
       </c>
       <c r="D49" s="12">
@@ -6329,29 +6318,29 @@
         <v>0.96135480295671705</v>
       </c>
       <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>3124.9999999999995</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" si="9"/>
-        <v>3124.9999999999995</v>
-      </c>
-      <c r="H49" s="1">
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" si="3"/>
+        <v>1583.3333333333328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="45">
+        <f t="shared" si="6"/>
+        <v>3.9166666666666692</v>
+      </c>
+      <c r="B50" s="52">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C50" s="37">
         <f t="shared" si="7"/>
-        <v>1541.6666666666667</v>
-      </c>
-      <c r="I49" s="20">
-        <f t="shared" si="1"/>
-        <v>1583.3333333333328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="61">
-        <f t="shared" si="4"/>
-        <v>3.9166666666666692</v>
-      </c>
-      <c r="B50" s="68">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C50" s="51">
-        <f t="shared" si="5"/>
         <v>44926</v>
       </c>
       <c r="D50" s="12">
@@ -6359,32 +6348,32 @@
         <v>0.95898967570756832</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="60">
+      <c r="H50" s="44">
         <f>H49+$P$6</f>
         <v>1875</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1249.9999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="61">
-        <f t="shared" si="4"/>
+      <c r="A51" s="45">
+        <f t="shared" si="6"/>
         <v>4.0000000000000027</v>
       </c>
-      <c r="B51" s="68">
-        <f t="shared" si="0"/>
+      <c r="B51" s="52">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="C51" s="51">
-        <f t="shared" si="5"/>
+      <c r="C51" s="37">
+        <f t="shared" si="7"/>
         <v>44957</v>
       </c>
       <c r="D51" s="12">
@@ -6394,30 +6383,30 @@
       <c r="E51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="44">
         <f>F50+$P$13</f>
         <v>3291.6666666666661</v>
       </c>
       <c r="H51" s="1">
+        <f t="shared" si="9"/>
+        <v>1875</v>
+      </c>
+      <c r="I51" s="20">
+        <f t="shared" si="3"/>
+        <v>1416.6666666666661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="45">
+        <f t="shared" si="6"/>
+        <v>4.0833333333333357</v>
+      </c>
+      <c r="B52" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C52" s="37">
         <f t="shared" si="7"/>
-        <v>1875</v>
-      </c>
-      <c r="I51" s="20">
-        <f t="shared" si="1"/>
-        <v>1416.6666666666661</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="61">
-        <f t="shared" si="4"/>
-        <v>4.0833333333333357</v>
-      </c>
-      <c r="B52" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C52" s="51">
-        <f t="shared" si="5"/>
         <v>44985</v>
       </c>
       <c r="D52" s="12">
@@ -6425,29 +6414,29 @@
         <v>0.95427686296825165</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>3291.6666666666661</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="9"/>
-        <v>3291.6666666666661</v>
-      </c>
-      <c r="H52" s="1">
+        <v>1875</v>
+      </c>
+      <c r="I52" s="20">
+        <f t="shared" si="3"/>
+        <v>1416.6666666666661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="45">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666687</v>
+      </c>
+      <c r="B53" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C53" s="37">
         <f t="shared" si="7"/>
-        <v>1875</v>
-      </c>
-      <c r="I52" s="20">
-        <f t="shared" si="1"/>
-        <v>1416.6666666666661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="61">
-        <f t="shared" si="4"/>
-        <v>4.1666666666666687</v>
-      </c>
-      <c r="B53" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C53" s="51">
-        <f t="shared" si="5"/>
         <v>45016</v>
       </c>
       <c r="D53" s="12">
@@ -6455,29 +6444,29 @@
         <v>0.95192914888298685</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="11"/>
+        <v>3291.6666666666661</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="9"/>
-        <v>3291.6666666666661</v>
-      </c>
-      <c r="H53" s="1">
+        <v>1875</v>
+      </c>
+      <c r="I53" s="20">
+        <f t="shared" si="3"/>
+        <v>1416.6666666666661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="45">
+        <f t="shared" si="6"/>
+        <v>4.2500000000000018</v>
+      </c>
+      <c r="B54" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C54" s="37">
         <f t="shared" si="7"/>
-        <v>1875</v>
-      </c>
-      <c r="I53" s="20">
-        <f t="shared" si="1"/>
-        <v>1416.6666666666661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="61">
-        <f t="shared" si="4"/>
-        <v>4.2500000000000018</v>
-      </c>
-      <c r="B54" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C54" s="51">
-        <f t="shared" si="5"/>
         <v>45046</v>
       </c>
       <c r="D54" s="12">
@@ -6485,32 +6474,32 @@
         <v>0.94958721064919671</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3291.6666666666661</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="60">
+      <c r="H54" s="44">
         <f>H53+$P$10</f>
         <v>2291.6666666666665</v>
       </c>
       <c r="I54" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>999.99999999999955</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="61">
-        <f t="shared" si="4"/>
+      <c r="A55" s="45">
+        <f t="shared" si="6"/>
         <v>4.3333333333333348</v>
       </c>
-      <c r="B55" s="68">
-        <f t="shared" si="0"/>
+      <c r="B55" s="52">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="C55" s="51">
-        <f t="shared" si="5"/>
+      <c r="C55" s="37">
+        <f t="shared" si="7"/>
         <v>45077</v>
       </c>
       <c r="D55" s="12">
@@ -6520,30 +6509,30 @@
       <c r="E55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="44">
         <f>F54+$P$14</f>
         <v>3541.6666666666661</v>
       </c>
       <c r="H55" s="1">
+        <f t="shared" si="9"/>
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I55" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="45">
+        <f t="shared" si="6"/>
+        <v>4.4166666666666679</v>
+      </c>
+      <c r="B56" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C56" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I55" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="61">
-        <f t="shared" si="4"/>
-        <v>4.4166666666666679</v>
-      </c>
-      <c r="B56" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C56" s="51">
-        <f t="shared" si="5"/>
         <v>45107</v>
       </c>
       <c r="D56" s="12">
@@ -6551,29 +6540,29 @@
         <v>0.94492060493194774</v>
       </c>
       <c r="F56" s="1">
+        <f t="shared" si="11"/>
+        <v>3541.6666666666661</v>
+      </c>
+      <c r="H56" s="1">
         <f t="shared" si="9"/>
-        <v>3541.6666666666661</v>
-      </c>
-      <c r="H56" s="1">
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I56" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="45">
+        <f t="shared" si="6"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="B57" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C57" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I56" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="61">
-        <f t="shared" si="4"/>
-        <v>4.5000000000000009</v>
-      </c>
-      <c r="B57" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C57" s="51">
-        <f t="shared" si="5"/>
         <v>45138</v>
       </c>
       <c r="D57" s="12">
@@ -6581,29 +6570,29 @@
         <v>0.94259590913375424</v>
       </c>
       <c r="F57" s="1">
+        <f t="shared" si="11"/>
+        <v>3541.6666666666661</v>
+      </c>
+      <c r="H57" s="1">
         <f t="shared" si="9"/>
-        <v>3541.6666666666661</v>
-      </c>
-      <c r="H57" s="1">
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I57" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="45">
+        <f t="shared" si="6"/>
+        <v>4.5833333333333339</v>
+      </c>
+      <c r="B58" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C58" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I57" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="61">
-        <f t="shared" si="4"/>
-        <v>4.5833333333333339</v>
-      </c>
-      <c r="B58" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C58" s="51">
-        <f t="shared" si="5"/>
         <v>45169</v>
       </c>
       <c r="D58" s="12">
@@ -6611,29 +6600,29 @@
         <v>0.94027693255739364</v>
       </c>
       <c r="F58" s="1">
+        <f t="shared" si="11"/>
+        <v>3541.6666666666661</v>
+      </c>
+      <c r="H58" s="1">
         <f t="shared" si="9"/>
-        <v>3541.6666666666661</v>
-      </c>
-      <c r="H58" s="1">
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I58" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="45">
+        <f t="shared" si="6"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="B59" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C59" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I58" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="61">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="B59" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C59" s="51">
-        <f t="shared" si="5"/>
         <v>45199</v>
       </c>
       <c r="D59" s="12">
@@ -6641,29 +6630,29 @@
         <v>0.93796366113242358</v>
       </c>
       <c r="F59" s="1">
+        <f t="shared" si="11"/>
+        <v>3541.6666666666661</v>
+      </c>
+      <c r="H59" s="1">
         <f t="shared" si="9"/>
-        <v>3541.6666666666661</v>
-      </c>
-      <c r="H59" s="1">
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I59" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="45">
+        <f t="shared" si="6"/>
+        <v>4.75</v>
+      </c>
+      <c r="B60" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C60" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I59" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="61">
-        <f t="shared" si="4"/>
-        <v>4.75</v>
-      </c>
-      <c r="B60" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C60" s="51">
-        <f t="shared" si="5"/>
         <v>45230</v>
       </c>
       <c r="D60" s="12">
@@ -6671,32 +6660,32 @@
         <v>0.93565608082301766</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H60" s="1">
+        <f t="shared" si="9"/>
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I60" s="20">
+        <f t="shared" si="3"/>
+        <v>1249.9999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="45">
+        <f t="shared" si="6"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="B61" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C61" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I60" s="20">
-        <f t="shared" si="1"/>
-        <v>1249.9999999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="61">
-        <f t="shared" si="4"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="B61" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C61" s="51">
-        <f t="shared" si="5"/>
         <v>45260</v>
       </c>
       <c r="D61" s="12">
@@ -6706,30 +6695,30 @@
       <c r="E61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="44">
         <f>F60+$P$15</f>
         <v>3624.9999999999995</v>
       </c>
       <c r="H61" s="1">
+        <f t="shared" si="9"/>
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I61" s="20">
+        <f t="shared" si="3"/>
+        <v>1333.333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="45">
+        <f t="shared" si="6"/>
+        <v>4.9166666666666661</v>
+      </c>
+      <c r="B62" s="52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C62" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I61" s="20">
-        <f t="shared" si="1"/>
-        <v>1333.333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="61">
-        <f t="shared" si="4"/>
-        <v>4.9166666666666661</v>
-      </c>
-      <c r="B62" s="68">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C62" s="51">
-        <f t="shared" si="5"/>
         <v>45291</v>
       </c>
       <c r="D62" s="12">
@@ -6737,29 +6726,29 @@
         <v>0.93105793758016353</v>
       </c>
       <c r="F62" s="1">
+        <f t="shared" si="11"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H62" s="1">
         <f t="shared" si="9"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H62" s="1">
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="I62" s="20">
+        <f t="shared" si="3"/>
+        <v>1333.333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="45">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="B63" s="52">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="C63" s="37">
         <f t="shared" si="7"/>
-        <v>2291.6666666666665</v>
-      </c>
-      <c r="I62" s="20">
-        <f t="shared" si="1"/>
-        <v>1333.333333333333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="61">
-        <f t="shared" si="4"/>
-        <v>4.9999999999999991</v>
-      </c>
-      <c r="B63" s="68">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="C63" s="51">
-        <f t="shared" si="5"/>
         <v>45322</v>
       </c>
       <c r="D63" s="12">
@@ -6767,32 +6756,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="44">
         <f>H62+$P$11</f>
         <v>2708.333333333333</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="61">
-        <f t="shared" si="4"/>
+      <c r="A64" s="45">
+        <f t="shared" si="6"/>
         <v>5.0833333333333321</v>
       </c>
-      <c r="B64" s="68">
-        <f t="shared" si="0"/>
+      <c r="B64" s="52">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C64" s="51">
-        <f t="shared" si="5"/>
+      <c r="C64" s="37">
+        <f t="shared" si="7"/>
         <v>45351</v>
       </c>
       <c r="D64" s="12">
@@ -6800,29 +6789,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:H68" si="10">H63</f>
+        <f t="shared" ref="H64:H68" si="12">H63</f>
         <v>2708.333333333333</v>
       </c>
       <c r="I64" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="61">
-        <f t="shared" si="4"/>
+      <c r="A65" s="45">
+        <f t="shared" si="6"/>
         <v>5.1666666666666652</v>
       </c>
-      <c r="B65" s="68">
-        <f t="shared" si="0"/>
+      <c r="B65" s="52">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C65" s="51">
-        <f t="shared" si="5"/>
+      <c r="C65" s="37">
+        <f t="shared" si="7"/>
         <v>45382</v>
       </c>
       <c r="D65" s="12">
@@ -6830,29 +6819,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2708.333333333333</v>
       </c>
       <c r="I65" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="61">
-        <f t="shared" si="4"/>
+      <c r="A66" s="45">
+        <f t="shared" si="6"/>
         <v>5.2499999999999982</v>
       </c>
-      <c r="B66" s="68">
-        <f t="shared" si="0"/>
+      <c r="B66" s="52">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C66" s="51">
-        <f t="shared" si="5"/>
+      <c r="C66" s="37">
+        <f t="shared" si="7"/>
         <v>45412</v>
       </c>
       <c r="D66" s="12">
@@ -6860,32 +6849,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2708.333333333333</v>
       </c>
       <c r="I66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="61">
-        <f t="shared" si="4"/>
+      <c r="A67" s="45">
+        <f t="shared" si="6"/>
         <v>5.3333333333333313</v>
       </c>
-      <c r="B67" s="68">
-        <f t="shared" si="0"/>
+      <c r="B67" s="52">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C67" s="51">
-        <f t="shared" si="5"/>
+      <c r="C67" s="37">
+        <f t="shared" si="7"/>
         <v>45443</v>
       </c>
       <c r="D67" s="12">
@@ -6893,29 +6882,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2708.333333333333</v>
       </c>
       <c r="I67" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="61">
-        <f t="shared" si="4"/>
+      <c r="A68" s="45">
+        <f t="shared" si="6"/>
         <v>5.4166666666666643</v>
       </c>
-      <c r="B68" s="68">
-        <f t="shared" ref="B68:B98" si="11">YEAR(C68)</f>
+      <c r="B68" s="52">
+        <f t="shared" ref="B68:B98" si="13">YEAR(C68)</f>
         <v>2024</v>
       </c>
-      <c r="C68" s="51">
-        <f t="shared" si="5"/>
+      <c r="C68" s="37">
+        <f t="shared" si="7"/>
         <v>45473</v>
       </c>
       <c r="D68" s="12">
@@ -6923,29 +6912,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2708.333333333333</v>
       </c>
       <c r="I68" s="20">
-        <f t="shared" ref="I68:I98" si="12">F68-H68</f>
+        <f t="shared" ref="I68:I98" si="14">F68-H68</f>
         <v>916.66666666666652</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="61">
-        <f t="shared" ref="A69:A86" si="13">A68+1/12</f>
+      <c r="A69" s="45">
+        <f t="shared" ref="A69:A86" si="15">A68+1/12</f>
         <v>5.4999999999999973</v>
       </c>
-      <c r="B69" s="68">
-        <f t="shared" si="11"/>
+      <c r="B69" s="52">
+        <f t="shared" si="13"/>
         <v>2024</v>
       </c>
-      <c r="C69" s="51">
-        <f t="shared" ref="C69:C85" si="14">EOMONTH(C68,1)</f>
+      <c r="C69" s="37">
+        <f t="shared" ref="C69:C85" si="16">EOMONTH(C68,1)</f>
         <v>45504</v>
       </c>
       <c r="D69" s="12">
@@ -6953,32 +6942,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="60">
+      <c r="H69" s="44">
         <f>H68+$P$12</f>
         <v>3124.9999999999995</v>
       </c>
       <c r="I69" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="61">
+      <c r="A70" s="45">
+        <f t="shared" si="15"/>
+        <v>5.5833333333333304</v>
+      </c>
+      <c r="B70" s="52">
         <f t="shared" si="13"/>
-        <v>5.5833333333333304</v>
-      </c>
-      <c r="B70" s="68">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
-      <c r="C70" s="51">
-        <f t="shared" si="14"/>
+      <c r="C70" s="37">
+        <f t="shared" si="16"/>
         <v>45535</v>
       </c>
       <c r="D70" s="12">
@@ -6986,29 +6975,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="I70" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="61">
+      <c r="A71" s="45">
+        <f t="shared" si="15"/>
+        <v>5.6666666666666634</v>
+      </c>
+      <c r="B71" s="52">
         <f t="shared" si="13"/>
-        <v>5.6666666666666634</v>
-      </c>
-      <c r="B71" s="68">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
-      <c r="C71" s="51">
-        <f t="shared" si="14"/>
+      <c r="C71" s="37">
+        <f t="shared" si="16"/>
         <v>45565</v>
       </c>
       <c r="D71" s="12">
@@ -7016,29 +7005,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="I71" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="61">
+      <c r="A72" s="45">
+        <f t="shared" si="15"/>
+        <v>5.7499999999999964</v>
+      </c>
+      <c r="B72" s="52">
         <f t="shared" si="13"/>
-        <v>5.7499999999999964</v>
-      </c>
-      <c r="B72" s="68">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
-      <c r="C72" s="51">
-        <f t="shared" si="14"/>
+      <c r="C72" s="37">
+        <f t="shared" si="16"/>
         <v>45596</v>
       </c>
       <c r="D72" s="12">
@@ -7046,32 +7035,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="I72" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="61">
+      <c r="A73" s="45">
+        <f t="shared" si="15"/>
+        <v>5.8333333333333295</v>
+      </c>
+      <c r="B73" s="52">
         <f t="shared" si="13"/>
-        <v>5.8333333333333295</v>
-      </c>
-      <c r="B73" s="68">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
-      <c r="C73" s="51">
-        <f t="shared" si="14"/>
+      <c r="C73" s="37">
+        <f t="shared" si="16"/>
         <v>45626</v>
       </c>
       <c r="D73" s="12">
@@ -7079,29 +7068,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="I73" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="61">
+      <c r="A74" s="45">
+        <f t="shared" si="15"/>
+        <v>5.9166666666666625</v>
+      </c>
+      <c r="B74" s="52">
         <f t="shared" si="13"/>
-        <v>5.9166666666666625</v>
-      </c>
-      <c r="B74" s="68">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
-      <c r="C74" s="51">
-        <f t="shared" si="14"/>
+      <c r="C74" s="37">
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="D74" s="12">
@@ -7109,29 +7098,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3124.9999999999995</v>
       </c>
       <c r="I74" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="61">
+      <c r="A75" s="45">
+        <f t="shared" si="15"/>
+        <v>5.9999999999999956</v>
+      </c>
+      <c r="B75" s="52">
         <f t="shared" si="13"/>
-        <v>5.9999999999999956</v>
-      </c>
-      <c r="B75" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C75" s="51">
-        <f t="shared" si="14"/>
+      <c r="C75" s="37">
+        <f t="shared" si="16"/>
         <v>45688</v>
       </c>
       <c r="D75" s="12">
@@ -7139,32 +7128,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H75" s="60">
+      <c r="H75" s="44">
         <f>H74+$P$13</f>
         <v>3291.6666666666661</v>
       </c>
       <c r="I75" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>333.33333333333348</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="61">
+      <c r="A76" s="45">
+        <f t="shared" si="15"/>
+        <v>6.0833333333333286</v>
+      </c>
+      <c r="B76" s="52">
         <f t="shared" si="13"/>
-        <v>6.0833333333333286</v>
-      </c>
-      <c r="B76" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C76" s="51">
-        <f t="shared" si="14"/>
+      <c r="C76" s="37">
+        <f t="shared" si="16"/>
         <v>45716</v>
       </c>
       <c r="D76" s="12">
@@ -7172,29 +7161,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3291.6666666666661</v>
       </c>
       <c r="I76" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>333.33333333333348</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="61">
+      <c r="A77" s="45">
+        <f t="shared" si="15"/>
+        <v>6.1666666666666616</v>
+      </c>
+      <c r="B77" s="52">
         <f t="shared" si="13"/>
-        <v>6.1666666666666616</v>
-      </c>
-      <c r="B77" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C77" s="51">
-        <f t="shared" si="14"/>
+      <c r="C77" s="37">
+        <f t="shared" si="16"/>
         <v>45747</v>
       </c>
       <c r="D77" s="12">
@@ -7202,29 +7191,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3291.6666666666661</v>
       </c>
       <c r="I77" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>333.33333333333348</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="61">
+      <c r="A78" s="45">
+        <f t="shared" si="15"/>
+        <v>6.2499999999999947</v>
+      </c>
+      <c r="B78" s="52">
         <f t="shared" si="13"/>
-        <v>6.2499999999999947</v>
-      </c>
-      <c r="B78" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C78" s="51">
-        <f t="shared" si="14"/>
+      <c r="C78" s="37">
+        <f t="shared" si="16"/>
         <v>45777</v>
       </c>
       <c r="D78" s="12">
@@ -7232,29 +7221,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3291.6666666666661</v>
       </c>
       <c r="I78" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>333.33333333333348</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="61">
+      <c r="A79" s="45">
+        <f t="shared" si="15"/>
+        <v>6.3333333333333277</v>
+      </c>
+      <c r="B79" s="52">
         <f t="shared" si="13"/>
-        <v>6.3333333333333277</v>
-      </c>
-      <c r="B79" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C79" s="51">
-        <f t="shared" si="14"/>
+      <c r="C79" s="37">
+        <f t="shared" si="16"/>
         <v>45808</v>
       </c>
       <c r="D79" s="12">
@@ -7262,32 +7251,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H79" s="60">
+      <c r="H79" s="44">
         <f>H78+$P$14</f>
         <v>3541.6666666666661</v>
       </c>
       <c r="I79" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="61">
+      <c r="A80" s="45">
+        <f t="shared" si="15"/>
+        <v>6.4166666666666607</v>
+      </c>
+      <c r="B80" s="52">
         <f t="shared" si="13"/>
-        <v>6.4166666666666607</v>
-      </c>
-      <c r="B80" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C80" s="51">
-        <f t="shared" si="14"/>
+      <c r="C80" s="37">
+        <f t="shared" si="16"/>
         <v>45838</v>
       </c>
       <c r="D80" s="12">
@@ -7295,29 +7284,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="I80" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="61">
+      <c r="A81" s="45">
+        <f t="shared" si="15"/>
+        <v>6.4999999999999938</v>
+      </c>
+      <c r="B81" s="52">
         <f t="shared" si="13"/>
-        <v>6.4999999999999938</v>
-      </c>
-      <c r="B81" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C81" s="51">
-        <f t="shared" si="14"/>
+      <c r="C81" s="37">
+        <f t="shared" si="16"/>
         <v>45869</v>
       </c>
       <c r="D81" s="12">
@@ -7325,29 +7314,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="I81" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="61">
+      <c r="A82" s="45">
+        <f t="shared" si="15"/>
+        <v>6.5833333333333268</v>
+      </c>
+      <c r="B82" s="52">
         <f t="shared" si="13"/>
-        <v>6.5833333333333268</v>
-      </c>
-      <c r="B82" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C82" s="51">
-        <f t="shared" si="14"/>
+      <c r="C82" s="37">
+        <f t="shared" si="16"/>
         <v>45900</v>
       </c>
       <c r="D82" s="12">
@@ -7355,29 +7344,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="I82" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="61">
+      <c r="A83" s="45">
+        <f t="shared" si="15"/>
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="B83" s="52">
         <f t="shared" si="13"/>
-        <v>6.6666666666666599</v>
-      </c>
-      <c r="B83" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C83" s="51">
-        <f t="shared" si="14"/>
+      <c r="C83" s="37">
+        <f t="shared" si="16"/>
         <v>45930</v>
       </c>
       <c r="D83" s="12">
@@ -7385,29 +7374,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="I83" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="61">
+      <c r="A84" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7499999999999929</v>
+      </c>
+      <c r="B84" s="52">
         <f t="shared" si="13"/>
-        <v>6.7499999999999929</v>
-      </c>
-      <c r="B84" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C84" s="51">
-        <f t="shared" si="14"/>
+      <c r="C84" s="37">
+        <f t="shared" si="16"/>
         <v>45961</v>
       </c>
       <c r="D84" s="12">
@@ -7415,29 +7404,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3541.6666666666661</v>
       </c>
       <c r="I84" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83.333333333333485</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="61">
+      <c r="A85" s="45">
+        <f t="shared" si="15"/>
+        <v>6.8333333333333259</v>
+      </c>
+      <c r="B85" s="52">
         <f t="shared" si="13"/>
-        <v>6.8333333333333259</v>
-      </c>
-      <c r="B85" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C85" s="51">
-        <f t="shared" si="14"/>
+      <c r="C85" s="37">
+        <f t="shared" si="16"/>
         <v>45991</v>
       </c>
       <c r="D85" s="12">
@@ -7445,32 +7434,32 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="44">
         <f>H84+$P$15</f>
         <v>3624.9999999999995</v>
       </c>
       <c r="I85" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="61">
+      <c r="A86" s="45">
+        <f t="shared" si="15"/>
+        <v>6.916666666666659</v>
+      </c>
+      <c r="B86" s="52">
         <f t="shared" si="13"/>
-        <v>6.916666666666659</v>
-      </c>
-      <c r="B86" s="68">
-        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="C86" s="51">
-        <f t="shared" ref="C86" si="15">EOMONTH(C85,1)</f>
+      <c r="C86" s="37">
+        <f t="shared" ref="C86" si="17">EOMONTH(C85,1)</f>
         <v>46022</v>
       </c>
       <c r="D86" s="12">
@@ -7478,29 +7467,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86" si="16">H85</f>
+        <f t="shared" ref="H86" si="18">H85</f>
         <v>3624.9999999999995</v>
       </c>
       <c r="I86" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="61">
-        <f t="shared" ref="A87:A98" si="17">A86+1/12</f>
+      <c r="A87" s="45">
+        <f t="shared" ref="A87:A98" si="19">A86+1/12</f>
         <v>6.999999999999992</v>
       </c>
-      <c r="B87" s="68">
-        <f t="shared" si="11"/>
+      <c r="B87" s="52">
+        <f t="shared" si="13"/>
         <v>2026</v>
       </c>
-      <c r="C87" s="51">
-        <f t="shared" ref="C87:C98" si="18">EOMONTH(C86,1)</f>
+      <c r="C87" s="37">
+        <f t="shared" ref="C87:C98" si="20">EOMONTH(C86,1)</f>
         <v>46053</v>
       </c>
       <c r="D87" s="12">
@@ -7508,29 +7497,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87:F98" si="19">F86</f>
+        <f t="shared" ref="F87:F98" si="21">F86</f>
         <v>3624.9999999999995</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:H98" si="20">H86</f>
+        <f t="shared" ref="H87:H98" si="22">H86</f>
         <v>3624.9999999999995</v>
       </c>
       <c r="I87" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="61">
-        <f t="shared" si="17"/>
+      <c r="A88" s="45">
+        <f t="shared" si="19"/>
         <v>7.083333333333325</v>
       </c>
-      <c r="B88" s="68">
-        <f t="shared" si="11"/>
+      <c r="B88" s="52">
+        <f t="shared" si="13"/>
         <v>2026</v>
       </c>
-      <c r="C88" s="51">
-        <f t="shared" si="18"/>
+      <c r="C88" s="37">
+        <f t="shared" si="20"/>
         <v>46081</v>
       </c>
       <c r="D88" s="12">
@@ -7538,29 +7527,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I88" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H88" s="1">
+        <v>7.1666666666666581</v>
+      </c>
+      <c r="B89" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C89" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I88" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="61">
-        <f t="shared" si="17"/>
-        <v>7.1666666666666581</v>
-      </c>
-      <c r="B89" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C89" s="51">
-        <f t="shared" si="18"/>
         <v>46112</v>
       </c>
       <c r="D89" s="12">
@@ -7568,29 +7557,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F89" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I89" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H89" s="1">
+        <v>7.2499999999999911</v>
+      </c>
+      <c r="B90" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C90" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I89" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="61">
-        <f t="shared" si="17"/>
-        <v>7.2499999999999911</v>
-      </c>
-      <c r="B90" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C90" s="51">
-        <f t="shared" si="18"/>
         <v>46142</v>
       </c>
       <c r="D90" s="12">
@@ -7598,29 +7587,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F90" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I90" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H90" s="1">
+        <v>7.3333333333333242</v>
+      </c>
+      <c r="B91" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C91" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I90" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="61">
-        <f t="shared" si="17"/>
-        <v>7.3333333333333242</v>
-      </c>
-      <c r="B91" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C91" s="51">
-        <f t="shared" si="18"/>
         <v>46173</v>
       </c>
       <c r="D91" s="12">
@@ -7628,29 +7617,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F91" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I91" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H91" s="1">
+        <v>7.4166666666666572</v>
+      </c>
+      <c r="B92" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C92" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I91" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="61">
-        <f t="shared" si="17"/>
-        <v>7.4166666666666572</v>
-      </c>
-      <c r="B92" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C92" s="51">
-        <f t="shared" si="18"/>
         <v>46203</v>
       </c>
       <c r="D92" s="12">
@@ -7658,29 +7647,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F92" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I92" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H92" s="1">
+        <v>7.4999999999999902</v>
+      </c>
+      <c r="B93" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C93" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I92" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="61">
-        <f t="shared" si="17"/>
-        <v>7.4999999999999902</v>
-      </c>
-      <c r="B93" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C93" s="51">
-        <f t="shared" si="18"/>
         <v>46234</v>
       </c>
       <c r="D93" s="12">
@@ -7688,29 +7677,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F93" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I93" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H93" s="1">
+        <v>7.5833333333333233</v>
+      </c>
+      <c r="B94" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C94" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I93" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="61">
-        <f t="shared" si="17"/>
-        <v>7.5833333333333233</v>
-      </c>
-      <c r="B94" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C94" s="51">
-        <f t="shared" si="18"/>
         <v>46265</v>
       </c>
       <c r="D94" s="12">
@@ -7718,29 +7707,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F94" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I94" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H94" s="1">
+        <v>7.6666666666666563</v>
+      </c>
+      <c r="B95" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C95" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I94" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="61">
-        <f t="shared" si="17"/>
-        <v>7.6666666666666563</v>
-      </c>
-      <c r="B95" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C95" s="51">
-        <f t="shared" si="18"/>
         <v>46295</v>
       </c>
       <c r="D95" s="12">
@@ -7748,29 +7737,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F95" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I95" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H95" s="1">
+        <v>7.7499999999999893</v>
+      </c>
+      <c r="B96" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C96" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I95" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="61">
-        <f t="shared" si="17"/>
-        <v>7.7499999999999893</v>
-      </c>
-      <c r="B96" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C96" s="51">
-        <f t="shared" si="18"/>
         <v>46326</v>
       </c>
       <c r="D96" s="12">
@@ -7778,29 +7767,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F96" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I96" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H96" s="1">
+        <v>7.8333333333333224</v>
+      </c>
+      <c r="B97" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C97" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I96" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="61">
-        <f t="shared" si="17"/>
-        <v>7.8333333333333224</v>
-      </c>
-      <c r="B97" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C97" s="51">
-        <f t="shared" si="18"/>
         <v>46356</v>
       </c>
       <c r="D97" s="12">
@@ -7808,29 +7797,29 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F97" s="1">
+        <f t="shared" si="21"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="22"/>
+        <v>3624.9999999999995</v>
+      </c>
+      <c r="I97" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="45">
         <f t="shared" si="19"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="H97" s="1">
+        <v>7.9166666666666554</v>
+      </c>
+      <c r="B98" s="52">
+        <f t="shared" si="13"/>
+        <v>2026</v>
+      </c>
+      <c r="C98" s="37">
         <f t="shared" si="20"/>
-        <v>3624.9999999999995</v>
-      </c>
-      <c r="I97" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="61">
-        <f t="shared" si="17"/>
-        <v>7.9166666666666554</v>
-      </c>
-      <c r="B98" s="68">
-        <f t="shared" si="11"/>
-        <v>2026</v>
-      </c>
-      <c r="C98" s="51">
-        <f t="shared" si="18"/>
         <v>46387</v>
       </c>
       <c r="D98" s="12">
@@ -7838,67 +7827,68 @@
         <v>0.92876734674737771</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3624.9999999999995</v>
       </c>
       <c r="I98" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="45"/>
+      <c r="C99" s="37"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="45"/>
+      <c r="C100" s="37"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="C101" s="51"/>
+      <c r="A101" s="45"/>
+      <c r="C101" s="37"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="45"/>
+      <c r="C102" s="37"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="45"/>
+      <c r="C103" s="37"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="45"/>
+      <c r="C104" s="37"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="45"/>
+      <c r="C105" s="37"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="C106" s="51"/>
+      <c r="A106" s="45"/>
+      <c r="C106" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>0.000000001</formula>
+      <formula>-0.000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7933,10 +7923,10 @@
       <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
